--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,12 +58,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -76,84 +76,90 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -163,64 +169,61 @@
     <t>easy</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>use</t>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3953488372093023</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -703,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2929292929292929</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -753,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +782,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>553</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>553</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8498452012383901</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +834,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -857,13 +860,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +886,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7316017316017316</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M10">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -935,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7111111111111111</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -961,13 +964,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6610169491525424</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -979,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -987,13 +990,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1005,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1013,13 +1016,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6356340288924559</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L15">
-        <v>792</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>792</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1031,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>454</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1039,13 +1042,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6153846153846154</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1057,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1065,13 +1068,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6027397260273972</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1091,13 +1094,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5789473684210527</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1109,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1117,13 +1120,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.578125</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1143,13 +1146,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5714285714285714</v>
+        <v>0.59375</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1161,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1169,13 +1172,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5673076923076923</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L21">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1195,13 +1198,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5588235294117647</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1247,13 +1250,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5538461538461539</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1273,13 +1276,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5470085470085471</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1291,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1299,13 +1302,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5428571428571428</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L26">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1317,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1325,13 +1328,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5421686746987951</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1351,13 +1354,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5209580838323353</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L28">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M28">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1369,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1377,13 +1380,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5138888888888888</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1395,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1403,13 +1406,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4567901234567901</v>
+        <v>0.49</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1429,13 +1432,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1455,13 +1458,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4473684210526316</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1473,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1481,13 +1484,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4060150375939849</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L33">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M33">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1507,13 +1510,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3975903614457831</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L34">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1525,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1533,13 +1536,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3735408560311284</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L35">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="M35">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1551,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1559,13 +1562,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3676470588235294</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L36">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>258</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1585,13 +1588,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3513513513513514</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1603,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1611,13 +1614,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3366336633663367</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1629,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>67</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1637,13 +1640,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3308270676691729</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1655,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>89</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1663,13 +1666,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3136986301369863</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L40">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1681,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>501</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1689,13 +1692,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2870813397129187</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L41">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1707,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1715,13 +1718,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2777777777777778</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1733,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>78</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1741,13 +1744,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2733812949640288</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1759,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1767,13 +1770,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2317880794701987</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1793,13 +1796,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2195909580193757</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L45">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>725</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1819,13 +1822,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2073170731707317</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1837,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1845,13 +1848,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2039735099337748</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L47">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="M47">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>601</v>
+        <v>708</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1871,13 +1874,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2037617554858934</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L48">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="M48">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1889,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>254</v>
+        <v>602</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1897,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1777493606138107</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L49">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>643</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1923,25 +1926,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1540540540540541</v>
+        <v>0.1943734015345268</v>
       </c>
       <c r="L50">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="M50">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>313</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1949,13 +1952,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1476014760147601</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1967,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1975,13 +1978,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.140893470790378</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="L52">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M52">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1993,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>250</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2001,13 +2004,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1359649122807018</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L53">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M53">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2019,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>394</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2027,13 +2030,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1312649164677804</v>
+        <v>0.1336515513126492</v>
       </c>
       <c r="L54">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M54">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2045,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2053,13 +2056,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1265206812652068</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="L55">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M55">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2071,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2079,13 +2082,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1185185185185185</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2097,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2105,13 +2108,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1181818181818182</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="L57">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>388</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2131,25 +2134,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.08034433285509325</v>
+        <v>0.1227272727272727</v>
       </c>
       <c r="L58">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M58">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>641</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2157,13 +2160,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.07923497267759563</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L59">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2175,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2183,25 +2186,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.07383177570093458</v>
+        <v>0.07369402985074627</v>
       </c>
       <c r="L60">
         <v>79</v>
       </c>
       <c r="M60">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2209,25 +2212,51 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.04419410745233969</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
         <v>51</v>
       </c>
-      <c r="M61">
-        <v>54</v>
-      </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1103</v>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.04329004329004329</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>52</v>
+      </c>
+      <c r="N62">
+        <v>0.96</v>
+      </c>
+      <c r="O62">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
